--- a/data/trans_dic/P16A17-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Clase-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.009643406202370402</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.005390780974367378</v>
+        <v>0.005390780974367377</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01012507129056131</v>
+        <v>0.009841606054153074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006057810278636607</v>
+        <v>0.006071252233223856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003106529973266132</v>
+        <v>0.003122674148288533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001477968186105828</v>
+        <v>0.0013859736644201</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04716365349425374</v>
+        <v>0.04823098554634764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04383852531396687</v>
+        <v>0.04496149140070765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02585997269857953</v>
+        <v>0.02581496941123936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0132748499827784</v>
+        <v>0.01222691436540547</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003071576838628708</v>
+        <v>0.003197015570805499</v>
       </c>
     </row>
     <row r="9">
@@ -695,13 +695,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01796572360189294</v>
+        <v>0.01702604368527805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01955487373864841</v>
+        <v>0.01921503806335967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01797322356710898</v>
+        <v>0.01944001580648041</v>
       </c>
     </row>
     <row r="10">
@@ -753,7 +753,7 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.02351507908685354</v>
+        <v>0.02310951699988402</v>
       </c>
     </row>
     <row r="13">
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004259553660646813</v>
+        <v>0.004318710373144598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002600522925809182</v>
+        <v>0.002599257904900538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001187689558985755</v>
+        <v>0.001183713782910526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0007951660772592003</v>
+        <v>0.001046791560413175</v>
       </c>
     </row>
     <row r="15">
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01847236274206652</v>
+        <v>0.02044249759029403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0150884122593202</v>
+        <v>0.01515463196770858</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009728316638675655</v>
+        <v>0.01057261318137164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.007976960513564169</v>
+        <v>0.008228607567050648</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>0.005278561442425177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.008241695520040485</v>
+        <v>0.008241695520040487</v>
       </c>
     </row>
     <row r="17">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001732346144982002</v>
+        <v>0.001714423521947703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003815504096694843</v>
+        <v>0.002688779236755814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001493770222814026</v>
+        <v>0.001422898502851253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004242702674969071</v>
+        <v>0.003977120484164882</v>
       </c>
     </row>
     <row r="18">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01656195710838893</v>
+        <v>0.01558112759669036</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01675464679141599</v>
+        <v>0.0165631460278983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01353588208978073</v>
+        <v>0.01207683195313881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01488218895320086</v>
+        <v>0.01471105365134924</v>
       </c>
     </row>
     <row r="19">
@@ -905,7 +905,7 @@
         <v>0.005392884726858035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.001799525774501542</v>
+        <v>0.001799525774501541</v>
       </c>
     </row>
     <row r="20">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.001560785488973894</v>
+        <v>0.001921076723916393</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0009264565953713506</v>
+        <v>0.0009303892226644616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002179703283086586</v>
+        <v>0.002017505202748733</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01078466905525404</v>
+        <v>0.01124527924702452</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01091490873539451</v>
+        <v>0.01017846171210725</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01199731842842306</v>
+        <v>0.01230902370465142</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.006403430611728658</v>
+        <v>0.005610523322950957</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
         <v>0.005121788231559794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.005026404354497801</v>
+        <v>0.005026404354497803</v>
       </c>
     </row>
     <row r="23">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004533473238911134</v>
+        <v>0.004642382758558081</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003482052676573384</v>
+        <v>0.003614562721343202</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003337287792837762</v>
+        <v>0.003000411579354665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003438199658965871</v>
+        <v>0.003343196646163281</v>
       </c>
     </row>
     <row r="24">
@@ -1000,16 +1000,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01049660353362925</v>
+        <v>0.0106153834600899</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.009406802045109039</v>
+        <v>0.009514222630111806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.008371957400187893</v>
+        <v>0.007990202591260582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.007326221320208329</v>
+        <v>0.007428061164146895</v>
       </c>
     </row>
     <row r="25">
@@ -1160,16 +1160,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3105</v>
+        <v>3018</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>721</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14464</v>
+        <v>14791</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13694</v>
+        <v>14044</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8975</v>
+        <v>8959</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6474</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1300</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="11">
@@ -1263,13 +1263,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6005</v>
+        <v>5691</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7280</v>
+        <v>7153</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7605</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="12">
@@ -1341,7 +1341,7 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4409</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="16">
@@ -1396,16 +1396,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3043</v>
+        <v>3085</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>681</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19">
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13195</v>
+        <v>14602</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11553</v>
+        <v>11603</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8034</v>
+        <v>8732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6834</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="20">
@@ -1480,16 +1480,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2894</v>
+        <v>2039</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3522</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="23">
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9420</v>
+        <v>8862</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12706</v>
+        <v>12561</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9993</v>
+        <v>8916</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12354</v>
+        <v>12212</v>
       </c>
     </row>
     <row r="24">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1947</v>
+        <v>2397</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2358</v>
+        <v>2183</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13457</v>
+        <v>14031</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12020</v>
+        <v>11209</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12981</v>
+        <v>13319</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5398</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="28">
@@ -1648,16 +1648,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15306</v>
+        <v>15674</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12287</v>
+        <v>12755</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11786</v>
+        <v>10596</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>12474</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="31">
@@ -1668,16 +1668,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>35439</v>
+        <v>35840</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>33194</v>
+        <v>33573</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29566</v>
+        <v>28218</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26581</v>
+        <v>26950</v>
       </c>
     </row>
     <row r="32">
